--- a/medicine/Pharmacie/Cyproheptadine/Cyproheptadine.xlsx
+++ b/medicine/Pharmacie/Cyproheptadine/Cyproheptadine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cyproheptadine, vendue entre autres sous le nom de marque Periactine, est un antihistaminique de première génération doté de propriétés anticholinergiques, antisérotonergiques et anesthésiques locaux supplémentaires.
-Il est utilisé en tant qu'antidote à un syndrome sérotoninergique[5], bien que cet usage n'ait pas été validé par un essai contrôlé randomisé[6].
+Il est utilisé en tant qu'antidote à un syndrome sérotoninergique, bien que cet usage n'ait pas été validé par un essai contrôlé randomisé.
 Il est également mésusé en tant qu'orexigène afin de faire prendre du poids, principalement chez les enfants.
-Il a été breveté en 1959 et est entré dans l'utilisation médicale en 1961[7]. 
+Il a été breveté en 1959 et est entré dans l'utilisation médicale en 1961. 
 </t>
         </is>
       </c>
